--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="21000" windowHeight="11745"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Workstatus" sheetId="1" r:id="rId4"/>
+    <sheet name="Workstatus" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgd4/Wq8vAolbc1SXmRYJ3YpE2Q4g=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -42,10 +40,10 @@
     <t>Client call</t>
   </si>
   <si>
-    <t>3-Test</t>
+    <t>AS Desai</t>
   </si>
   <si>
-    <t>Priyesh Pandey</t>
+    <t>Rahul kukreti</t>
   </si>
   <si>
     <t>Medium</t>
@@ -57,32 +55,179 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,45 +235,515 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -318,23 +933,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="18.71"/>
+    <col min="1" max="26" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" ht="14.25" customHeight="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -371,23 +988,23 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" ht="14.25" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1390,9 +2007,8 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11745"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Workstatus" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
     <t>Client call</t>
   </si>
   <si>
-    <t>AS Desai</t>
+    <t>24 Karat (Raj Jewellers+GANPATRAJ GOLD)</t>
   </si>
   <si>
-    <t>Rahul kukreti</t>
+    <t>Adarsh jain</t>
   </si>
   <si>
     <t>Medium</t>
@@ -59,10 +59,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +78,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -93,15 +122,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,83 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -214,13 +228,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -237,187 +244,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,17 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -505,6 +497,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,156 +538,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,12 +951,14 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="18.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="18.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="71.1428571428571" customWidth="1"/>
+    <col min="4" max="26" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:23">
@@ -995,7 +1005,7 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>testCaseID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Desciption</t>
   </si>
   <si>
+    <t>Filter_Project</t>
+  </si>
+  <si>
     <t>testCaseID_01</t>
   </si>
   <si>
@@ -51,16 +54,19 @@
   <si>
     <t>Client meeting</t>
   </si>
+  <si>
+    <t>Exit360</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -83,6 +89,59 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -93,15 +152,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,30 +176,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -169,6 +198,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -177,35 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -215,19 +229,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -244,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +468,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -486,6 +518,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -500,45 +541,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,136 +559,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,7 +957,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -980,7 +986,9 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -998,24 +1006,27 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:6">
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>testCaseID</t>
   </si>
@@ -37,6 +37,36 @@
     <t>Filter_Project</t>
   </si>
   <si>
+    <t>Client_Name</t>
+  </si>
+  <si>
+    <t>Client_Address</t>
+  </si>
+  <si>
+    <t>Client_Email</t>
+  </si>
+  <si>
+    <t>Client_Phone</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Based On</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Client_Phone_Update</t>
+  </si>
+  <si>
     <t>testCaseID_01</t>
   </si>
   <si>
@@ -56,6 +86,24 @@
   </si>
   <si>
     <t>Exit360</t>
+  </si>
+  <si>
+    <t>Shane watson</t>
+  </si>
+  <si>
+    <t>JH-90,Saket new delhi,110016</t>
+  </si>
+  <si>
+    <t>watson@yopmail.com</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Bill rate</t>
+  </si>
+  <si>
+    <t>Never</t>
   </si>
 </sst>
 </file>
@@ -63,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +139,121 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,22 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,104 +282,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -250,25 +304,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,151 +406,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,15 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,17 +513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,8 +551,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,183 +581,176 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,15 +1012,20 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="18.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="71.1428571428571" customWidth="1"/>
-    <col min="4" max="26" width="18.7142857142857" customWidth="1"/>
+    <col min="4" max="8" width="18.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="27.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="21.1428571428571" customWidth="1"/>
+    <col min="11" max="16" width="18.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="22.1428571428571" customWidth="1"/>
+    <col min="18" max="26" width="18.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:23">
@@ -989,16 +1050,36 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1006,27 +1087,57 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:7">
+    <row r="2" ht="14.25" customHeight="1" spans="1:17">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>7896321458</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="O2">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>8527903362</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
@@ -2028,6 +2139,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="watson@yopmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>testCaseID</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>Client_Phone_Update</t>
+  </si>
+  <si>
+    <t>Instruction</t>
   </si>
   <si>
     <t>testCaseID_01</t>
@@ -111,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -153,6 +156,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -161,7 +180,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,40 +256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,23 +272,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,43 +291,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -304,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +498,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,30 +575,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,190 +598,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,8 +1015,8 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1080,52 +1083,54 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:17">
+    <row r="2" ht="14.25" customHeight="1" spans="1:18">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>7896321458</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="6">
         <v>5000</v>
@@ -1134,10 +1139,13 @@
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>8527903362</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>testCaseID</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Desciption</t>
+    <t>Description</t>
   </si>
   <si>
     <t>Filter_Project</t>
@@ -70,6 +70,9 @@
     <t>Instruction</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>testCaseID_01</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
   </si>
   <si>
     <t>Never</t>
+  </si>
+  <si>
+    <t>Daily work</t>
   </si>
 </sst>
 </file>
@@ -114,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -156,6 +162,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -164,6 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -172,32 +222,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,48 +263,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,14 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -278,8 +283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,19 +313,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,163 +403,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,6 +504,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,7 +565,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,7 +574,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,60 +604,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,136 +622,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1015,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1086,51 +1092,53 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:18">
+    <row r="2" ht="14.25" customHeight="1" spans="1:19">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>7896321458</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="6">
         <v>5000</v>
@@ -1139,13 +1147,16 @@
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2">
         <v>8527903362</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>testCaseID</t>
   </si>
@@ -79,19 +79,16 @@
     <t>Client call</t>
   </si>
   <si>
-    <t>24 Karat (Raj Jewellers+GANPATRAJ GOLD)</t>
-  </si>
-  <si>
-    <t>Adarsh jain</t>
+    <t>Berd</t>
+  </si>
+  <si>
+    <t>Jack</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
     <t>Client meeting</t>
-  </si>
-  <si>
-    <t>Exit360</t>
   </si>
   <si>
     <t>Shane watson</t>
@@ -120,12 +117,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +138,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
@@ -151,34 +147,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +176,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,8 +236,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,9 +259,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,187 +303,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,11 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,41 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +556,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -604,151 +579,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,8 +748,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1021,8 +1011,8 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1110,7 +1100,7 @@
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
@@ -1120,34 +1110,34 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="K2">
         <v>7896321458</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <v>5000</v>
       </c>
       <c r="O2">
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>8527903362</v>
@@ -1156,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>

--- a/TestData/StageData.xlsx
+++ b/TestData/StageData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>testCaseID</t>
   </si>
@@ -73,6 +73,15 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Policy Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
     <t>testCaseID_01</t>
   </si>
   <si>
@@ -110,6 +119,15 @@
   </si>
   <si>
     <t>Daily work</t>
+  </si>
+  <si>
+    <t>Time table</t>
+  </si>
+  <si>
+    <t>Policy joined date</t>
+  </si>
+  <si>
+    <t>On time</t>
   </si>
 </sst>
 </file>
@@ -117,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,6 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -160,7 +185,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,30 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -221,10 +260,33 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -238,51 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +515,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,28 +557,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,21 +583,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,160 +601,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
   </cellXfs>
@@ -1011,8 +1028,8 @@
   <sheetPr/>
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1085,50 +1102,56 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:19">
+    <row r="2" ht="14.25" customHeight="1" spans="1:22">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="K2">
         <v>7896321458</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N2" s="4">
         <v>5000</v>
@@ -1137,16 +1160,25 @@
         <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2">
         <v>8527903362</v>
       </c>
       <c r="R2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
